--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.41</v>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +2027,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.39</v>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2011,14 +2098,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.38</v>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2027,14 +2136,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.41</v>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2043,13 +2174,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.35</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数（QDII）美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -990,214 +1481,6 @@
       </c>
       <c r="H10" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1272,22 +1555,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1310,22 +1593,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1348,26 +1631,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1391,21 +1674,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1414,6 +1697,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2227,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
+++ b/数据整理/stocks/其他/EQIX-Equinix有限公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1090,7 +1713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1481,214 +2104,6 @@
       </c>
       <c r="H10" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>070031</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实全球房地产(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1763,22 +2178,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1801,22 +2216,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1204</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1839,26 +2254,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0286</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1882,21 +2297,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96.68</t>
+          <t>95.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0145</t>
+          <t>0.0161</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1905,6 +2320,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实全球房地产(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2188,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2434,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2716,250 +3339,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006283</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1040</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>206011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1040</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>